--- a/Extraction_RKB.xlsx
+++ b/Extraction_RKB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel/Documents/GitHub/transparency_space/transp_space_medicine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuel/Documents/Documents - Emmanuel’s MacBook Pro (2)/GitHub/transp_space_meds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319A7365-F6DD-4145-8CCB-936143589388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBB157A-FBB4-8A44-A740-67DBAD950B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{2F54812F-E398-7546-90EE-CF6A824C00C4}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="1389">
   <si>
     <t>Article title</t>
   </si>
@@ -3609,9 +3609,6 @@
     <t>academic + public (NASA)</t>
   </si>
   <si>
-    <t>15 exp mice + 15 control</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -3825,16 +3822,10 @@
     <t>Hospital</t>
   </si>
   <si>
-    <t>16 fish</t>
-  </si>
-  <si>
     <t>pre and post flight exp</t>
   </si>
   <si>
     <t>hypothesis article on astrobiology</t>
-  </si>
-  <si>
-    <t>4 + 4 control</t>
   </si>
   <si>
     <t xml:space="preserve">NASA + ESA </t>
@@ -5013,9 +5004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB814D-2930-7D42-964D-1C885633927A}">
   <dimension ref="A1:AO201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="62" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="62" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB126" sqref="AB126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5054,7 +5045,7 @@
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5078,67 +5069,67 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M1" t="s">
         <v>1288</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1291</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1349</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>1292</v>
-      </c>
       <c r="P1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="Q1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="R1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>1380</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1384</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>1139</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>1130</v>
@@ -5150,16 +5141,16 @@
         <v>1136</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>921</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>923</v>
@@ -5242,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="AD2">
         <v>9</v>
@@ -5346,7 +5337,7 @@
         <v>110</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -5411,10 +5402,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -5423,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -5453,7 +5444,7 @@
         <v>1129</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC4" s="9">
         <v>16</v>
@@ -5494,7 +5485,7 @@
     </row>
     <row r="5" spans="1:41" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B5" t="s">
         <v>929</v>
@@ -5518,19 +5509,19 @@
         <v>394</v>
       </c>
       <c r="I5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M5" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -5539,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>1125</v>
+        <v>1147</v>
       </c>
       <c r="T5" t="s">
         <v>1125</v>
@@ -5560,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
@@ -5607,7 +5598,7 @@
         <v>1132</v>
       </c>
       <c r="T6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V6" t="s">
         <v>1133</v>
@@ -5631,7 +5622,7 @@
         <v>12</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD6">
         <v>3</v>
@@ -5735,10 +5726,10 @@
         <v>1135</v>
       </c>
       <c r="AB7" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AD7">
         <v>1</v>
@@ -5824,7 +5815,7 @@
         <v>1126</v>
       </c>
       <c r="W8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X8" t="s">
         <v>1128</v>
@@ -5839,10 +5830,10 @@
         <v>1129</v>
       </c>
       <c r="AB8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AD8">
         <v>1</v>
@@ -5916,7 +5907,7 @@
         <v>1132</v>
       </c>
       <c r="T9" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V9" t="s">
         <v>1133</v>
@@ -5934,10 +5925,10 @@
         <v>1129</v>
       </c>
       <c r="AB9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD9">
         <v>5</v>
@@ -6002,10 +5993,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -6023,7 +6014,7 @@
         <v>1132</v>
       </c>
       <c r="T10" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U10" t="s">
         <v>1150</v>
@@ -6047,7 +6038,7 @@
         <v>1129</v>
       </c>
       <c r="AB10" t="s">
-        <v>1391</v>
+        <v>1239</v>
       </c>
       <c r="AC10" s="10" t="s">
         <v>1170</v>
@@ -6220,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -6256,10 +6247,10 @@
         <v>1129</v>
       </c>
       <c r="AB12" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC12" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -6345,7 +6336,7 @@
         <v>1126</v>
       </c>
       <c r="W13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X13" t="s">
         <v>1158</v>
@@ -6360,10 +6351,10 @@
         <v>1129</v>
       </c>
       <c r="AB13" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -6470,7 +6461,7 @@
         <v>2</v>
       </c>
       <c r="AC14" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -6636,10 +6627,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -6681,10 +6672,10 @@
         <v>1129</v>
       </c>
       <c r="AB16" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="AC16" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="AD16">
         <v>2</v>
@@ -6853,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -6862,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
@@ -6898,10 +6889,10 @@
         <v>1129</v>
       </c>
       <c r="AB18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC18" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -7005,10 +6996,10 @@
         <v>1129</v>
       </c>
       <c r="AB19" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC19" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AD19">
         <v>2</v>
@@ -7064,7 +7055,7 @@
         <v>2018</v>
       </c>
       <c r="H20" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -7113,10 +7104,10 @@
         <v>1129</v>
       </c>
       <c r="AB20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC20" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -7181,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -7199,7 +7190,7 @@
         <v>1132</v>
       </c>
       <c r="T21" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V21" t="s">
         <v>1133</v>
@@ -7223,7 +7214,7 @@
         <v>10</v>
       </c>
       <c r="AC21" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -7288,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -7330,7 +7321,7 @@
         <v>1129</v>
       </c>
       <c r="AB22" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC22" s="10" t="s">
         <v>1169</v>
@@ -7389,7 +7380,7 @@
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -7398,7 +7389,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -7437,7 +7428,7 @@
         <v>1129</v>
       </c>
       <c r="AB23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC23" s="10" t="s">
         <v>1170</v>
@@ -7505,10 +7496,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -7517,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
@@ -7529,7 +7520,7 @@
         <v>1132</v>
       </c>
       <c r="T24" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V24" t="s">
         <v>1133</v>
@@ -7550,7 +7541,7 @@
         <v>1173</v>
       </c>
       <c r="AB24" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC24" s="10" t="s">
         <v>1174</v>
@@ -7639,7 +7630,7 @@
         <v>1126</v>
       </c>
       <c r="W25" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X25" t="s">
         <v>1128</v>
@@ -7654,7 +7645,7 @@
         <v>1129</v>
       </c>
       <c r="AB25" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC25" s="10" t="s">
         <v>1175</v>
@@ -7722,10 +7713,10 @@
         <v>1</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -7743,7 +7734,7 @@
         <v>1132</v>
       </c>
       <c r="T26" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V26" t="s">
         <v>1133</v>
@@ -7763,11 +7754,11 @@
       <c r="AA26" t="s">
         <v>1129</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AB26">
+        <v>30</v>
+      </c>
+      <c r="AC26" s="10" t="s">
         <v>1177</v>
-      </c>
-      <c r="AC26" s="10" t="s">
-        <v>1178</v>
       </c>
       <c r="AD26">
         <v>3</v>
@@ -7853,7 +7844,7 @@
         <v>1126</v>
       </c>
       <c r="W27" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X27" t="s">
         <v>1125</v>
@@ -7862,10 +7853,10 @@
         <v>1129</v>
       </c>
       <c r="AB27" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC27" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -7892,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AM27" t="b">
         <v>0</v>
@@ -7948,7 +7939,7 @@
         <v>1126</v>
       </c>
       <c r="W28" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X28" t="s">
         <v>1128</v>
@@ -7957,16 +7948,16 @@
         <v>1140</v>
       </c>
       <c r="Z28" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AA28" t="s">
         <v>1129</v>
       </c>
       <c r="AB28" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC28" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD28">
         <v>1</v>
@@ -8067,7 +8058,7 @@
         <v>1129</v>
       </c>
       <c r="AB29" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AC29" s="10" t="s">
         <v>1174</v>
@@ -8126,7 +8117,7 @@
         <v>2020</v>
       </c>
       <c r="H30" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -8135,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -8153,10 +8144,10 @@
         <v>1132</v>
       </c>
       <c r="T30" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U30" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V30" t="s">
         <v>1133</v>
@@ -8174,10 +8165,10 @@
         <v>1129</v>
       </c>
       <c r="AB30" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC30" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -8242,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -8266,7 +8257,7 @@
         <v>1126</v>
       </c>
       <c r="W31" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X31" t="s">
         <v>1125</v>
@@ -8275,16 +8266,16 @@
         <v>1134</v>
       </c>
       <c r="Z31" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA31" t="s">
         <v>1129</v>
       </c>
       <c r="AB31" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC31" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -8322,7 +8313,7 @@
     </row>
     <row r="32" spans="1:41" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>956</v>
@@ -8375,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="AO32" s="23" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="33" spans="2:40" x14ac:dyDescent="0.2">
@@ -8428,7 +8419,7 @@
         <v>1126</v>
       </c>
       <c r="W33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X33" t="s">
         <v>1125</v>
@@ -8440,10 +8431,10 @@
         <v>1129</v>
       </c>
       <c r="AB33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC33" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AD33">
         <v>8</v>
@@ -8529,7 +8520,7 @@
         <v>1126</v>
       </c>
       <c r="W34" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X34" t="s">
         <v>1125</v>
@@ -8538,16 +8529,16 @@
         <v>1134</v>
       </c>
       <c r="Z34" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AA34" t="s">
         <v>1129</v>
       </c>
       <c r="AB34" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC34" s="10" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="AD34">
         <v>5</v>
@@ -8642,16 +8633,16 @@
         <v>1140</v>
       </c>
       <c r="Z35" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AA35" t="s">
         <v>1135</v>
       </c>
       <c r="AB35" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC35" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -8731,10 +8722,10 @@
         <v>1132</v>
       </c>
       <c r="T36" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U36" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V36" t="s">
         <v>1133</v>
@@ -8755,7 +8746,7 @@
         <v>50</v>
       </c>
       <c r="AC36" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -8835,7 +8826,7 @@
         <v>1132</v>
       </c>
       <c r="T37" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V37" t="s">
         <v>1133</v>
@@ -8850,7 +8841,7 @@
         <v>1140</v>
       </c>
       <c r="Z37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AA37" t="s">
         <v>1129</v>
@@ -8939,7 +8930,7 @@
         <v>1132</v>
       </c>
       <c r="T38" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V38" t="s">
         <v>1133</v>
@@ -8954,7 +8945,7 @@
         <v>1134</v>
       </c>
       <c r="Z38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="AA38" t="s">
         <v>1129</v>
@@ -8963,7 +8954,7 @@
         <v>24</v>
       </c>
       <c r="AC38" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -9028,19 +9019,19 @@
         <v>1</v>
       </c>
       <c r="K39" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M39" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>1301</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>1303</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>1304</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
@@ -9052,7 +9043,7 @@
         <v>1132</v>
       </c>
       <c r="T39" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V39" t="s">
         <v>1126</v>
@@ -9067,13 +9058,13 @@
         <v>1140</v>
       </c>
       <c r="Z39" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AA39" t="s">
         <v>1129</v>
       </c>
       <c r="AB39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC39" s="10" t="s">
         <v>1174</v>
@@ -9162,22 +9153,22 @@
         <v>1126</v>
       </c>
       <c r="W40" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X40" t="s">
         <v>1158</v>
       </c>
       <c r="Y40" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA40" t="s">
         <v>1135</v>
       </c>
       <c r="AB40" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC40" s="10" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -9215,7 +9206,7 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E41">
         <v>34744173</v>
@@ -9257,7 +9248,7 @@
         <v>1126</v>
       </c>
       <c r="W41" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X41" t="s">
         <v>1125</v>
@@ -9272,10 +9263,10 @@
         <v>1129</v>
       </c>
       <c r="AB41" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC41" s="10" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -9376,10 +9367,10 @@
         <v>1135</v>
       </c>
       <c r="AB42" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC42" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -9450,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
@@ -9468,7 +9459,7 @@
         <v>1126</v>
       </c>
       <c r="W43" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X43" t="s">
         <v>1158</v>
@@ -9480,10 +9471,10 @@
         <v>1129</v>
       </c>
       <c r="AB43" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC43" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -9563,7 +9554,7 @@
         <v>1132</v>
       </c>
       <c r="T44" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V44" t="s">
         <v>1133</v>
@@ -9581,10 +9572,10 @@
         <v>1129</v>
       </c>
       <c r="AB44" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC44" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD44">
         <v>2</v>
@@ -9649,10 +9640,10 @@
         <v>1</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="M45" t="b">
         <v>1</v>
@@ -9661,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
@@ -9676,7 +9667,7 @@
         <v>1125</v>
       </c>
       <c r="U45" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V45" t="s">
         <v>1126</v>
@@ -9694,7 +9685,7 @@
         <v>1135</v>
       </c>
       <c r="AB45" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC45" s="10" t="s">
         <v>1170</v>
@@ -9798,10 +9789,10 @@
         <v>1129</v>
       </c>
       <c r="AB46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC46" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -9905,7 +9896,7 @@
         <v>24</v>
       </c>
       <c r="AC47" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD47">
         <v>2</v>
@@ -9970,10 +9961,10 @@
         <v>1</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -10012,10 +10003,10 @@
         <v>1135</v>
       </c>
       <c r="AB48" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC48" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD48">
         <v>3</v>
@@ -10113,16 +10104,16 @@
         <v>1134</v>
       </c>
       <c r="Z49" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA49" t="s">
         <v>1129</v>
       </c>
       <c r="AB49" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC49" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD49">
         <v>3</v>
@@ -10202,7 +10193,7 @@
         <v>1132</v>
       </c>
       <c r="T50" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V50" t="s">
         <v>1133</v>
@@ -10217,13 +10208,13 @@
         <v>1134</v>
       </c>
       <c r="Z50" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AA50" t="s">
         <v>1129</v>
       </c>
       <c r="AB50" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC50" s="10" t="s">
         <v>1175</v>
@@ -10291,10 +10282,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -10312,7 +10303,7 @@
         <v>1132</v>
       </c>
       <c r="T51" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V51" t="s">
         <v>1133</v>
@@ -10336,7 +10327,7 @@
         <v>12</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD51">
         <v>2</v>
@@ -10401,10 +10392,10 @@
         <v>1</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -10413,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -10425,7 +10416,7 @@
         <v>1132</v>
       </c>
       <c r="T52" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V52" t="s">
         <v>1126</v>
@@ -10440,7 +10431,7 @@
         <v>1140</v>
       </c>
       <c r="Z52" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="AA52" t="s">
         <v>1135</v>
@@ -10529,7 +10520,7 @@
         <v>1125</v>
       </c>
       <c r="U53" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V53" t="s">
         <v>1126</v>
@@ -10547,10 +10538,10 @@
         <v>1135</v>
       </c>
       <c r="AB53" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC53" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD53">
         <v>2</v>
@@ -10630,7 +10621,7 @@
         <v>1132</v>
       </c>
       <c r="T54" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V54" t="s">
         <v>1133</v>
@@ -10651,7 +10642,7 @@
         <v>1129</v>
       </c>
       <c r="AB54" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC54" s="10" t="s">
         <v>1169</v>
@@ -10734,7 +10725,7 @@
         <v>1132</v>
       </c>
       <c r="T55" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V55" t="s">
         <v>1133</v>
@@ -10758,7 +10749,7 @@
         <v>40</v>
       </c>
       <c r="AC55" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD55">
         <v>2</v>
@@ -10841,7 +10832,7 @@
         <v>1152</v>
       </c>
       <c r="U56" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V56" t="s">
         <v>1133</v>
@@ -10862,7 +10853,7 @@
         <v>12</v>
       </c>
       <c r="AC56" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD56">
         <v>2</v>
@@ -10966,7 +10957,7 @@
         <v>18</v>
       </c>
       <c r="AC57" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -11022,7 +11013,7 @@
         <v>2017</v>
       </c>
       <c r="H58" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -11046,7 +11037,7 @@
         <v>1132</v>
       </c>
       <c r="T58" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V58" t="s">
         <v>1133</v>
@@ -11058,7 +11049,7 @@
         <v>1158</v>
       </c>
       <c r="Y58" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="AA58" t="s">
         <v>1135</v>
@@ -11067,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="AC58" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD58">
         <v>4</v>
@@ -11168,10 +11159,10 @@
         <v>1135</v>
       </c>
       <c r="AB59" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC59" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -11269,16 +11260,16 @@
         <v>1140</v>
       </c>
       <c r="Z60" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AA60" t="s">
         <v>1129</v>
       </c>
       <c r="AB60" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC60" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AD60">
         <v>4</v>
@@ -11379,7 +11370,7 @@
         <v>1135</v>
       </c>
       <c r="AB61" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC61" s="10" t="s">
         <v>1174</v>
@@ -11462,10 +11453,10 @@
         <v>1132</v>
       </c>
       <c r="T62" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U62" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V62" t="s">
         <v>1133</v>
@@ -11486,7 +11477,7 @@
         <v>70</v>
       </c>
       <c r="AC62" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -11566,7 +11557,7 @@
         <v>1132</v>
       </c>
       <c r="T63" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V63" t="s">
         <v>1126</v>
@@ -11584,10 +11575,10 @@
         <v>1129</v>
       </c>
       <c r="AB63" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC63" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD63">
         <v>3</v>
@@ -11652,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="M64" t="b">
         <v>0</v>
@@ -11673,10 +11664,10 @@
         <v>1132</v>
       </c>
       <c r="T64" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U64" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="V64" t="s">
         <v>1133</v>
@@ -11697,7 +11688,7 @@
         <v>75</v>
       </c>
       <c r="AC64" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -11801,7 +11792,7 @@
         <v>9</v>
       </c>
       <c r="AC65" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD65">
         <v>1</v>
@@ -11851,7 +11842,7 @@
         <v>2021</v>
       </c>
       <c r="H66" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
@@ -11878,7 +11869,7 @@
         <v>1152</v>
       </c>
       <c r="U66" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V66" t="s">
         <v>1133</v>
@@ -11899,7 +11890,7 @@
         <v>12</v>
       </c>
       <c r="AC66" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD66">
         <v>2</v>
@@ -11970,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="O67" s="17" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="P67" t="b">
         <v>0</v>
@@ -11985,7 +11976,7 @@
         <v>1152</v>
       </c>
       <c r="U67" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="V67" t="s">
         <v>1126</v>
@@ -11997,16 +11988,16 @@
         <v>1158</v>
       </c>
       <c r="Y67" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA67" t="s">
         <v>1129</v>
       </c>
       <c r="AB67" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC67" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD67">
         <v>0</v>
@@ -12083,7 +12074,7 @@
         <v>1125</v>
       </c>
       <c r="U68" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="V68" t="s">
         <v>1126</v>
@@ -12098,16 +12089,16 @@
         <v>1140</v>
       </c>
       <c r="Z68" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AA68" t="s">
         <v>1129</v>
       </c>
       <c r="AB68" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC68" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -12208,7 +12199,7 @@
         <v>21</v>
       </c>
       <c r="AC69" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD69">
         <v>2</v>
@@ -12273,10 +12264,10 @@
         <v>1</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
@@ -12294,7 +12285,7 @@
         <v>1132</v>
       </c>
       <c r="T70" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V70" t="s">
         <v>1133</v>
@@ -12309,7 +12300,7 @@
         <v>1140</v>
       </c>
       <c r="Z70" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="AA70" t="s">
         <v>1135</v>
@@ -12318,7 +12309,7 @@
         <v>89</v>
       </c>
       <c r="AC70" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AD70">
         <v>1</v>
@@ -12398,7 +12389,7 @@
         <v>1132</v>
       </c>
       <c r="T71" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V71" t="s">
         <v>1133</v>
@@ -12419,7 +12410,7 @@
         <v>6</v>
       </c>
       <c r="AC71" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD71">
         <v>4</v>
@@ -12514,16 +12505,16 @@
         <v>1125</v>
       </c>
       <c r="Z72" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="AA72" t="s">
         <v>1129</v>
       </c>
       <c r="AB72" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC72" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD72">
         <v>0</v>
@@ -12579,7 +12570,7 @@
         <v>2017</v>
       </c>
       <c r="H73" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -12603,7 +12594,7 @@
         <v>1132</v>
       </c>
       <c r="T73" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V73" t="s">
         <v>1133</v>
@@ -12624,7 +12615,7 @@
         <v>20</v>
       </c>
       <c r="AC73" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -12710,22 +12701,22 @@
         <v>1126</v>
       </c>
       <c r="W74" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X74" t="s">
         <v>1125</v>
       </c>
       <c r="Y74" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA74" t="s">
         <v>1129</v>
       </c>
       <c r="AB74" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC74" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD74">
         <v>2</v>
@@ -12799,7 +12790,7 @@
         <v>1132</v>
       </c>
       <c r="T75" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V75" t="s">
         <v>1126</v>
@@ -12814,16 +12805,16 @@
         <v>1134</v>
       </c>
       <c r="Z75" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA75" t="s">
         <v>1135</v>
       </c>
       <c r="AB75" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC75" s="10" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AD75">
         <v>1</v>
@@ -12882,10 +12873,10 @@
         <v>1</v>
       </c>
       <c r="K76" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>1314</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>1317</v>
       </c>
       <c r="M76" t="b">
         <v>0</v>
@@ -12903,7 +12894,7 @@
         <v>1132</v>
       </c>
       <c r="T76" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V76" t="s">
         <v>1133</v>
@@ -12918,16 +12909,16 @@
         <v>1140</v>
       </c>
       <c r="Z76" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AA76" t="s">
         <v>1129</v>
       </c>
       <c r="AB76" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC76" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD76">
         <v>3</v>
@@ -13022,7 +13013,7 @@
         <v>1134</v>
       </c>
       <c r="Z77" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA77" t="s">
         <v>1135</v>
@@ -13031,7 +13022,7 @@
         <v>581</v>
       </c>
       <c r="AC77" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD77">
         <v>4</v>
@@ -13111,10 +13102,10 @@
         <v>1132</v>
       </c>
       <c r="T78" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U78" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V78" t="s">
         <v>1133</v>
@@ -13129,7 +13120,7 @@
         <v>1140</v>
       </c>
       <c r="Z78" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AA78" t="s">
         <v>1129</v>
@@ -13141,7 +13132,7 @@
         <v>1169</v>
       </c>
       <c r="AD78" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="AE78">
         <v>9</v>
@@ -13224,7 +13215,7 @@
         <v>1126</v>
       </c>
       <c r="W79" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X79" t="s">
         <v>1125</v>
@@ -13239,10 +13230,10 @@
         <v>1129</v>
       </c>
       <c r="AB79" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AD79">
         <v>3</v>
@@ -13322,7 +13313,7 @@
         <v>1126</v>
       </c>
       <c r="W80" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X80" t="s">
         <v>1125</v>
@@ -13337,10 +13328,10 @@
         <v>1129</v>
       </c>
       <c r="AB80" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AD80">
         <v>0</v>
@@ -13444,7 +13435,7 @@
         <v>1129</v>
       </c>
       <c r="AB81" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC81" s="10" t="s">
         <v>1174</v>
@@ -13512,10 +13503,10 @@
         <v>1</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
@@ -13533,10 +13524,10 @@
         <v>1132</v>
       </c>
       <c r="T82" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U82" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V82" t="s">
         <v>1133</v>
@@ -13554,13 +13545,13 @@
         <v>1129</v>
       </c>
       <c r="AB82" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC82" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD82" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AE82">
         <v>7</v>
@@ -13658,10 +13649,10 @@
         <v>1135</v>
       </c>
       <c r="AB83" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC83" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AD83">
         <v>0</v>
@@ -13741,7 +13732,7 @@
         <v>1132</v>
       </c>
       <c r="T84" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V84" t="s">
         <v>1133</v>
@@ -13765,7 +13756,7 @@
         <v>20</v>
       </c>
       <c r="AC84" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD84">
         <v>0</v>
@@ -13830,10 +13821,10 @@
         <v>1</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -13851,10 +13842,10 @@
         <v>1132</v>
       </c>
       <c r="T85" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U85" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V85" t="s">
         <v>1133</v>
@@ -13869,7 +13860,7 @@
         <v>1134</v>
       </c>
       <c r="Z85" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AA85" t="s">
         <v>1129</v>
@@ -13878,7 +13869,7 @@
         <v>12</v>
       </c>
       <c r="AC85" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD85">
         <v>3</v>
@@ -13943,7 +13934,7 @@
         <v>1</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -13964,7 +13955,7 @@
         <v>1125</v>
       </c>
       <c r="U86" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V86" t="s">
         <v>1126</v>
@@ -13979,13 +13970,13 @@
         <v>1134</v>
       </c>
       <c r="Z86" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA86" t="s">
         <v>1129</v>
       </c>
       <c r="AB86" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC86" s="10" t="s">
         <v>1170</v>
@@ -14047,10 +14038,10 @@
         <v>1</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -14068,7 +14059,7 @@
         <v>1132</v>
       </c>
       <c r="T87" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V87" t="s">
         <v>1133</v>
@@ -14169,7 +14160,7 @@
         <v>1132</v>
       </c>
       <c r="T88" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V88" t="s">
         <v>1126</v>
@@ -14184,10 +14175,10 @@
         <v>1135</v>
       </c>
       <c r="AB88" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC88" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD88">
         <v>1</v>
@@ -14288,7 +14279,7 @@
         <v>14</v>
       </c>
       <c r="AC89" s="10" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="AD89">
         <v>2</v>
@@ -14344,7 +14335,7 @@
         <v>2019</v>
       </c>
       <c r="H90" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -14389,7 +14380,7 @@
         <v>1129</v>
       </c>
       <c r="AB90" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC90" s="10" t="s">
         <v>1174</v>
@@ -14475,22 +14466,22 @@
         <v>1126</v>
       </c>
       <c r="W91" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X91" t="s">
         <v>1125</v>
       </c>
       <c r="Y91" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA91" t="s">
         <v>1129</v>
       </c>
       <c r="AB91" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC91" s="10" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AD91">
         <v>0</v>
@@ -14567,7 +14558,7 @@
         <v>1126</v>
       </c>
       <c r="W92" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X92" t="s">
         <v>1125</v>
@@ -14582,7 +14573,7 @@
         <v>1129</v>
       </c>
       <c r="AB92" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC92" s="10" t="s">
         <v>1169</v>
@@ -14665,10 +14656,10 @@
         <v>1132</v>
       </c>
       <c r="T93" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U93" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V93" t="s">
         <v>1133</v>
@@ -14683,7 +14674,7 @@
         <v>1134</v>
       </c>
       <c r="Z93" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AA93" t="s">
         <v>1135</v>
@@ -14692,7 +14683,7 @@
         <v>109</v>
       </c>
       <c r="AC93" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD93">
         <v>5</v>
@@ -14757,10 +14748,10 @@
         <v>1</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
@@ -14778,7 +14769,7 @@
         <v>1132</v>
       </c>
       <c r="T94" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V94" t="s">
         <v>1133</v>
@@ -14796,10 +14787,10 @@
         <v>1135</v>
       </c>
       <c r="AB94" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC94" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD94">
         <v>4</v>
@@ -14879,10 +14870,10 @@
         <v>1132</v>
       </c>
       <c r="T95" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U95" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V95" t="s">
         <v>1133</v>
@@ -14897,7 +14888,7 @@
         <v>1140</v>
       </c>
       <c r="Z95" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AA95" t="s">
         <v>1129</v>
@@ -14950,7 +14941,7 @@
         <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E96">
         <v>34556658</v>
@@ -14992,7 +14983,7 @@
         <v>1126</v>
       </c>
       <c r="W96" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X96" t="s">
         <v>1125</v>
@@ -15004,10 +14995,10 @@
         <v>1129</v>
       </c>
       <c r="AB96" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC96" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AD96">
         <v>1</v>
@@ -15090,7 +15081,7 @@
         <v>1132</v>
       </c>
       <c r="T97" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V97" t="s">
         <v>1126</v>
@@ -15105,7 +15096,7 @@
         <v>1134</v>
       </c>
       <c r="Z97" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA97" t="s">
         <v>1129</v>
@@ -15114,7 +15105,7 @@
         <v>6</v>
       </c>
       <c r="AC97" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD97">
         <v>3</v>
@@ -15179,10 +15170,10 @@
         <v>1</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
@@ -15200,7 +15191,7 @@
         <v>1132</v>
       </c>
       <c r="T98" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V98" t="s">
         <v>1133</v>
@@ -15215,16 +15206,16 @@
         <v>1134</v>
       </c>
       <c r="Z98" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA98" t="s">
         <v>1129</v>
       </c>
       <c r="AB98" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC98" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AD98">
         <v>3</v>
@@ -15310,7 +15301,7 @@
         <v>1126</v>
       </c>
       <c r="W99" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X99" t="s">
         <v>1125</v>
@@ -15319,16 +15310,16 @@
         <v>1140</v>
       </c>
       <c r="Z99" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AA99" t="s">
         <v>1129</v>
       </c>
       <c r="AB99" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC99" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD99">
         <v>0</v>
@@ -15411,7 +15402,7 @@
         <v>1152</v>
       </c>
       <c r="U100" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V100" t="s">
         <v>1126</v>
@@ -15423,7 +15414,7 @@
         <v>1128</v>
       </c>
       <c r="Y100" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA100" t="s">
         <v>1129</v>
@@ -15432,7 +15423,7 @@
         <v>82</v>
       </c>
       <c r="AC100" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD100">
         <v>3</v>
@@ -15521,16 +15512,16 @@
         <v>1140</v>
       </c>
       <c r="Z101" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AA101" t="s">
         <v>1135</v>
       </c>
       <c r="AB101" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC101" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD101">
         <v>0</v>
@@ -15586,7 +15577,7 @@
         <v>2017</v>
       </c>
       <c r="H102" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -15610,10 +15601,10 @@
         <v>1132</v>
       </c>
       <c r="T102" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U102" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V102" t="s">
         <v>1133</v>
@@ -15702,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
@@ -15720,7 +15711,7 @@
         <v>1132</v>
       </c>
       <c r="T103" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V103" t="s">
         <v>1133</v>
@@ -15735,16 +15726,16 @@
         <v>1134</v>
       </c>
       <c r="Z103" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA103" t="s">
         <v>1129</v>
       </c>
       <c r="AB103" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC103" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD103">
         <v>5</v>
@@ -15809,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
@@ -15851,10 +15842,10 @@
         <v>1129</v>
       </c>
       <c r="AB104" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC104" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD104">
         <v>0</v>
@@ -15866,7 +15857,7 @@
         <v>1</v>
       </c>
       <c r="AG104" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AH104" t="s">
         <v>1137</v>
@@ -15934,10 +15925,10 @@
         <v>1132</v>
       </c>
       <c r="T105" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U105" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V105" t="s">
         <v>1133</v>
@@ -15952,16 +15943,16 @@
         <v>1134</v>
       </c>
       <c r="Z105" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="AA105" t="s">
         <v>1129</v>
       </c>
       <c r="AB105" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC105" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AD105">
         <v>1</v>
@@ -16041,7 +16032,7 @@
         <v>1132</v>
       </c>
       <c r="T106" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V106" t="s">
         <v>1133</v>
@@ -16056,16 +16047,16 @@
         <v>1134</v>
       </c>
       <c r="Z106" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA106" t="s">
         <v>1129</v>
       </c>
       <c r="AB106" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC106" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="AC106" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="AD106">
         <v>0</v>
@@ -16130,10 +16121,10 @@
         <v>1</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
@@ -16151,7 +16142,7 @@
         <v>1132</v>
       </c>
       <c r="T107" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V107" t="s">
         <v>1133</v>
@@ -16166,16 +16157,16 @@
         <v>1140</v>
       </c>
       <c r="Z107" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="AA107" t="s">
         <v>1129</v>
       </c>
       <c r="AB107" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC107" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD107">
         <v>1</v>
@@ -16273,13 +16264,13 @@
         <v>1134</v>
       </c>
       <c r="Z108" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="AA108" t="s">
         <v>1129</v>
       </c>
       <c r="AB108" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC108" s="10" t="s">
         <v>1174</v>
@@ -16368,7 +16359,7 @@
         <v>1126</v>
       </c>
       <c r="W109" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X109" t="s">
         <v>1128</v>
@@ -16377,16 +16368,16 @@
         <v>1134</v>
       </c>
       <c r="Z109" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA109" t="s">
         <v>1129</v>
       </c>
       <c r="AB109" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC109" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AD109">
         <v>4</v>
@@ -16451,10 +16442,10 @@
         <v>1</v>
       </c>
       <c r="K110" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
@@ -16472,7 +16463,7 @@
         <v>1132</v>
       </c>
       <c r="T110" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V110" t="s">
         <v>1133</v>
@@ -16487,16 +16478,16 @@
         <v>1134</v>
       </c>
       <c r="Z110" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AA110" t="s">
         <v>1129</v>
       </c>
       <c r="AB110" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC110" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="AC110" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="AD110">
         <v>1</v>
@@ -16561,7 +16552,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
@@ -16579,7 +16570,7 @@
         <v>1132</v>
       </c>
       <c r="T111" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V111" t="s">
         <v>1133</v>
@@ -16594,13 +16585,13 @@
         <v>1134</v>
       </c>
       <c r="Z111" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA111" t="s">
         <v>1173</v>
       </c>
       <c r="AB111" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC111" s="10" t="s">
         <v>1169</v>
@@ -16615,7 +16606,7 @@
         <v>1</v>
       </c>
       <c r="AG111" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AH111" t="s">
         <v>1137</v>
@@ -16641,7 +16632,7 @@
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B112" t="s">
         <v>1035</v>
@@ -16692,7 +16683,7 @@
         <v>1126</v>
       </c>
       <c r="W112" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X112" t="s">
         <v>1128</v>
@@ -16704,10 +16695,10 @@
         <v>1129</v>
       </c>
       <c r="AB112" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC112" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD112">
         <v>2</v>
@@ -16743,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AO112" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="113" spans="1:41" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -16775,10 +16766,10 @@
         <v>1</v>
       </c>
       <c r="K113" s="19" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L113" s="19" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="M113" s="18" t="b">
         <v>0</v>
@@ -16797,7 +16788,7 @@
         <v>1132</v>
       </c>
       <c r="T113" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V113" s="18" t="s">
         <v>1126</v>
@@ -16815,10 +16806,10 @@
         <v>1173</v>
       </c>
       <c r="AB113" s="18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC113" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AD113" s="18">
         <v>0</v>
@@ -16898,7 +16889,7 @@
         <v>1126</v>
       </c>
       <c r="W114" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X114" t="s">
         <v>1128</v>
@@ -16907,16 +16898,16 @@
         <v>1134</v>
       </c>
       <c r="Z114" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA114" t="s">
         <v>1135</v>
       </c>
       <c r="AB114" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC114" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD114">
         <v>2</v>
@@ -17017,7 +17008,7 @@
         <v>1129</v>
       </c>
       <c r="AB115" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC115" s="10" t="s">
         <v>1170</v>
@@ -17103,7 +17094,7 @@
         <v>1152</v>
       </c>
       <c r="U116" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V116" t="s">
         <v>1133</v>
@@ -17118,7 +17109,7 @@
         <v>1134</v>
       </c>
       <c r="Z116" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA116" t="s">
         <v>1135</v>
@@ -17192,10 +17183,10 @@
         <v>1</v>
       </c>
       <c r="K117" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
@@ -17231,13 +17222,13 @@
         <v>1140</v>
       </c>
       <c r="Z117" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AA117" t="s">
         <v>1247</v>
       </c>
-      <c r="AA117" t="s">
-        <v>1248</v>
-      </c>
       <c r="AB117" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC117" s="10" t="s">
         <v>1170</v>
@@ -17338,16 +17329,16 @@
         <v>1140</v>
       </c>
       <c r="Z118" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AA118" t="s">
         <v>1129</v>
       </c>
       <c r="AB118" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC118" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD118">
         <v>0</v>
@@ -17448,10 +17439,10 @@
         <v>1129</v>
       </c>
       <c r="AB119" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC119" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -17516,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
@@ -17534,7 +17525,7 @@
         <v>1132</v>
       </c>
       <c r="T120" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V120" t="s">
         <v>1133</v>
@@ -17551,8 +17542,8 @@
       <c r="AA120" t="s">
         <v>1129</v>
       </c>
-      <c r="AB120" t="s">
-        <v>1249</v>
+      <c r="AB120">
+        <v>16</v>
       </c>
       <c r="AC120" s="10" t="s">
         <v>1170</v>
@@ -17641,22 +17632,22 @@
         <v>1126</v>
       </c>
       <c r="W121" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X121" t="s">
         <v>1125</v>
       </c>
       <c r="Y121" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA121" t="s">
         <v>1173</v>
       </c>
       <c r="AB121" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC121" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD121">
         <v>2</v>
@@ -17730,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="R122" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="S122" t="s">
         <v>1132</v>
@@ -17739,7 +17730,7 @@
         <v>1152</v>
       </c>
       <c r="U122" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V122" t="s">
         <v>1133</v>
@@ -17760,7 +17751,7 @@
         <v>20</v>
       </c>
       <c r="AC122" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD122">
         <v>5</v>
@@ -17840,10 +17831,10 @@
         <v>1132</v>
       </c>
       <c r="T123" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U123" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="V123" t="s">
         <v>1133</v>
@@ -17864,7 +17855,7 @@
         <v>8</v>
       </c>
       <c r="AC123" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD123">
         <v>1</v>
@@ -17941,13 +17932,13 @@
         <v>1125</v>
       </c>
       <c r="U124" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="V124" t="s">
         <v>1126</v>
       </c>
       <c r="W124" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X124" t="s">
         <v>1125</v>
@@ -17959,10 +17950,10 @@
         <v>1129</v>
       </c>
       <c r="AB124" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC124" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AD124">
         <v>3</v>
@@ -18042,7 +18033,7 @@
         <v>1132</v>
       </c>
       <c r="T125" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V125" t="s">
         <v>1133</v>
@@ -18059,8 +18050,8 @@
       <c r="AA125" t="s">
         <v>1135</v>
       </c>
-      <c r="AB125" t="s">
-        <v>1252</v>
+      <c r="AB125">
+        <v>8</v>
       </c>
       <c r="AC125" s="10" t="s">
         <v>1170</v>
@@ -18128,10 +18119,10 @@
         <v>1</v>
       </c>
       <c r="K126" s="7" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="M126" t="b">
         <v>1</v>
@@ -18140,7 +18131,7 @@
         <v>1</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="P126" t="b">
         <v>0</v>
@@ -18152,7 +18143,7 @@
         <v>1132</v>
       </c>
       <c r="T126" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V126" t="s">
         <v>1126</v>
@@ -18167,16 +18158,16 @@
         <v>1134</v>
       </c>
       <c r="Z126" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AA126" t="s">
         <v>1135</v>
       </c>
       <c r="AB126" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC126" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD126">
         <v>0</v>
@@ -18256,7 +18247,7 @@
         <v>1132</v>
       </c>
       <c r="T127" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V127" t="s">
         <v>1133</v>
@@ -18274,7 +18265,7 @@
         <v>1135</v>
       </c>
       <c r="AB127" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC127" s="10" t="s">
         <v>1169</v>
@@ -18315,7 +18306,7 @@
     </row>
     <row r="128" spans="1:41" ht="34" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B128" t="s">
         <v>1051</v>
@@ -18345,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -18369,22 +18360,22 @@
         <v>1126</v>
       </c>
       <c r="W128" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X128" t="s">
         <v>1125</v>
       </c>
       <c r="Y128" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA128" t="s">
         <v>1129</v>
       </c>
       <c r="AB128" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC128" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AD128">
         <v>1</v>
@@ -18414,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="AO128" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="129" spans="2:40" ht="238" x14ac:dyDescent="0.2">
@@ -18446,10 +18437,10 @@
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -18473,7 +18464,7 @@
         <v>1126</v>
       </c>
       <c r="W129" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X129" t="s">
         <v>1125</v>
@@ -18485,10 +18476,10 @@
         <v>1129</v>
       </c>
       <c r="AB129" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC129" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD129">
         <v>6</v>
@@ -18553,10 +18544,10 @@
         <v>1</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -18574,7 +18565,7 @@
         <v>1132</v>
       </c>
       <c r="T130" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V130" t="s">
         <v>1126</v>
@@ -18592,10 +18583,10 @@
         <v>1173</v>
       </c>
       <c r="AB130" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC130" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD130">
         <v>1</v>
@@ -18678,7 +18669,7 @@
         <v>1152</v>
       </c>
       <c r="U131" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="V131" t="s">
         <v>1133</v>
@@ -18699,7 +18690,7 @@
         <v>10</v>
       </c>
       <c r="AC131" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD131">
         <v>1</v>
@@ -18779,7 +18770,7 @@
         <v>1126</v>
       </c>
       <c r="W132" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X132" t="s">
         <v>1125</v>
@@ -18791,7 +18782,7 @@
         <v>1135</v>
       </c>
       <c r="AB132" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC132" s="10" t="s">
         <v>1169</v>
@@ -18874,7 +18865,7 @@
         <v>1133</v>
       </c>
       <c r="W133" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X133" t="s">
         <v>1125</v>
@@ -18886,10 +18877,10 @@
         <v>1129</v>
       </c>
       <c r="AB133" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC133" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD133">
         <v>1</v>
@@ -18972,7 +18963,7 @@
         <v>1152</v>
       </c>
       <c r="U134" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="V134" t="s">
         <v>1133</v>
@@ -18990,10 +18981,10 @@
         <v>1135</v>
       </c>
       <c r="AB134" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AC134" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD134">
         <v>0</v>
@@ -19076,7 +19067,7 @@
         <v>1152</v>
       </c>
       <c r="U135" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="V135" t="s">
         <v>1133</v>
@@ -19162,7 +19153,7 @@
         <v>1</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
@@ -19180,10 +19171,10 @@
         <v>1132</v>
       </c>
       <c r="T136" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U136" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="V136" t="s">
         <v>1126</v>
@@ -19204,7 +19195,7 @@
         <v>14</v>
       </c>
       <c r="AC136" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD136">
         <v>3</v>
@@ -19302,10 +19293,10 @@
         <v>1129</v>
       </c>
       <c r="AB137" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC137" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD137">
         <v>1</v>
@@ -19385,7 +19376,7 @@
         <v>1132</v>
       </c>
       <c r="T138" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V138" t="s">
         <v>1133</v>
@@ -19474,10 +19465,10 @@
         <v>1</v>
       </c>
       <c r="K139" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="M139" t="b">
         <v>0</v>
@@ -19495,10 +19486,10 @@
         <v>1132</v>
       </c>
       <c r="T139" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U139" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V139" t="s">
         <v>1126</v>
@@ -19516,10 +19507,10 @@
         <v>1135</v>
       </c>
       <c r="AB139" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC139" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD139">
         <v>5</v>
@@ -19594,7 +19585,7 @@
         <v>1132</v>
       </c>
       <c r="T140" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V140" t="s">
         <v>1133</v>
@@ -19609,16 +19600,16 @@
         <v>1134</v>
       </c>
       <c r="Z140" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AA140" t="s">
         <v>1129</v>
       </c>
       <c r="AB140" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC140" s="10" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="AD140">
         <v>2</v>
@@ -19698,7 +19689,7 @@
         <v>1132</v>
       </c>
       <c r="T141" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V141" t="s">
         <v>1133</v>
@@ -19713,16 +19704,16 @@
         <v>1134</v>
       </c>
       <c r="Z141" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="AA141" t="s">
         <v>1129</v>
       </c>
       <c r="AB141" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC141" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="AC141" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="AD141">
         <v>3</v>
@@ -19820,10 +19811,10 @@
         <v>1129</v>
       </c>
       <c r="AB142" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC142" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD142">
         <v>1</v>
@@ -19921,10 +19912,10 @@
         <v>1129</v>
       </c>
       <c r="AB143" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC143" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD143">
         <v>0</v>
@@ -20022,7 +20013,7 @@
         <v>1135</v>
       </c>
       <c r="AB144" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC144" s="10" t="s">
         <v>1174</v>
@@ -20090,10 +20081,10 @@
         <v>1</v>
       </c>
       <c r="K145" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -20111,7 +20102,7 @@
         <v>1132</v>
       </c>
       <c r="T145" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V145" t="s">
         <v>1133</v>
@@ -20132,7 +20123,7 @@
         <v>27</v>
       </c>
       <c r="AC145" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD145">
         <v>3</v>
@@ -20230,10 +20221,10 @@
         <v>1135</v>
       </c>
       <c r="AB146" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC146" s="10" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AD146">
         <v>1</v>
@@ -20319,7 +20310,7 @@
         <v>1126</v>
       </c>
       <c r="W147" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X147" t="s">
         <v>1125</v>
@@ -20331,10 +20322,10 @@
         <v>1129</v>
       </c>
       <c r="AB147" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC147" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD147">
         <v>0</v>
@@ -20417,7 +20408,7 @@
         <v>1125</v>
       </c>
       <c r="U148" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="V148" t="s">
         <v>1126</v>
@@ -20435,7 +20426,7 @@
         <v>1129</v>
       </c>
       <c r="AB148" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC148" s="10" t="s">
         <v>1169</v>
@@ -20503,10 +20494,10 @@
         <v>1</v>
       </c>
       <c r="K149" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="M149" t="b">
         <v>0</v>
@@ -20542,10 +20533,10 @@
         <v>1135</v>
       </c>
       <c r="AB149" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC149" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD149">
         <v>1</v>
@@ -20643,10 +20634,10 @@
         <v>1129</v>
       </c>
       <c r="AB150" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC150" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD150">
         <v>1</v>
@@ -20702,7 +20693,7 @@
         <v>2019</v>
       </c>
       <c r="H151" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
@@ -20744,10 +20735,10 @@
         <v>1129</v>
       </c>
       <c r="AB151" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC151" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD151">
         <v>0</v>
@@ -20833,7 +20824,7 @@
         <v>1126</v>
       </c>
       <c r="W152" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X152" t="s">
         <v>1125</v>
@@ -20845,10 +20836,10 @@
         <v>1129</v>
       </c>
       <c r="AB152" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC152" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD152">
         <v>0</v>
@@ -20910,10 +20901,10 @@
         <v>1</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="M153" t="b">
         <v>0</v>
@@ -20949,7 +20940,7 @@
         <v>1129</v>
       </c>
       <c r="AB153" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC153" s="10" t="s">
         <v>1169</v>
@@ -21032,7 +21023,7 @@
         <v>1132</v>
       </c>
       <c r="T154" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V154" t="s">
         <v>1133</v>
@@ -21047,13 +21038,13 @@
         <v>1134</v>
       </c>
       <c r="Z154" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA154" t="s">
         <v>1135</v>
       </c>
       <c r="AB154" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC154" s="10" t="s">
         <v>1170</v>
@@ -21094,7 +21085,7 @@
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B155" t="s">
         <v>1078</v>
@@ -21161,7 +21152,7 @@
         <v>1</v>
       </c>
       <c r="AO155" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="156" spans="1:41" ht="409.6" x14ac:dyDescent="0.2">
@@ -21193,10 +21184,10 @@
         <v>1</v>
       </c>
       <c r="K156" s="7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="M156" t="b">
         <v>1</v>
@@ -21205,7 +21196,7 @@
         <v>1</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="P156" t="b">
         <v>0</v>
@@ -21217,10 +21208,10 @@
         <v>1132</v>
       </c>
       <c r="T156" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="U156" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="V156" t="s">
         <v>1133</v>
@@ -21235,13 +21226,13 @@
         <v>1134</v>
       </c>
       <c r="Z156" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA156" t="s">
         <v>1135</v>
       </c>
       <c r="AB156" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC156" s="10" t="s">
         <v>1175</v>
@@ -21330,22 +21321,22 @@
         <v>1126</v>
       </c>
       <c r="W157" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X157" t="s">
         <v>1125</v>
       </c>
       <c r="Y157" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA157" t="s">
         <v>1129</v>
       </c>
       <c r="AB157" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC157" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AD157">
         <v>2</v>
@@ -21404,7 +21395,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="16" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="M158" t="b">
         <v>0</v>
@@ -21422,7 +21413,7 @@
         <v>1132</v>
       </c>
       <c r="T158" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V158" t="s">
         <v>1133</v>
@@ -21437,7 +21428,7 @@
         <v>1134</v>
       </c>
       <c r="Z158" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA158" t="s">
         <v>1173</v>
@@ -21446,7 +21437,7 @@
         <v>10</v>
       </c>
       <c r="AC158" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD158">
         <v>3</v>
@@ -21484,7 +21475,7 @@
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B159" s="26" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C159" t="s">
         <v>309</v>
@@ -21532,22 +21523,22 @@
         <v>1126</v>
       </c>
       <c r="W159" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X159" t="s">
         <v>1125</v>
       </c>
       <c r="Y159" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA159" t="s">
         <v>1129</v>
       </c>
       <c r="AB159" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC159" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD159">
         <v>0</v>
@@ -21597,7 +21588,7 @@
         <v>2015</v>
       </c>
       <c r="H160" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
@@ -21639,7 +21630,7 @@
         <v>1129</v>
       </c>
       <c r="AB160" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC160">
         <v>13</v>
@@ -21704,10 +21695,10 @@
         <v>1</v>
       </c>
       <c r="K161" s="7" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="M161" t="b">
         <v>0</v>
@@ -21725,7 +21716,7 @@
         <v>1132</v>
       </c>
       <c r="T161" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V161" t="s">
         <v>1126</v>
@@ -21740,7 +21731,7 @@
         <v>1134</v>
       </c>
       <c r="Z161" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA161" t="s">
         <v>1135</v>
@@ -21749,7 +21740,7 @@
         <v>1</v>
       </c>
       <c r="AC161" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD161">
         <v>2</v>
@@ -21835,7 +21826,7 @@
         <v>1126</v>
       </c>
       <c r="W162" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X162" t="s">
         <v>1125</v>
@@ -21847,10 +21838,10 @@
         <v>1129</v>
       </c>
       <c r="AB162" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC162" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD162">
         <v>3</v>
@@ -21930,7 +21921,7 @@
         <v>1132</v>
       </c>
       <c r="T163" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V163" t="s">
         <v>1126</v>
@@ -21945,7 +21936,7 @@
         <v>1134</v>
       </c>
       <c r="Z163" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="AA163" t="s">
         <v>1129</v>
@@ -21954,7 +21945,7 @@
         <v>16</v>
       </c>
       <c r="AC163" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD163">
         <v>1</v>
@@ -22004,7 +21995,7 @@
         <v>2017</v>
       </c>
       <c r="H164" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
@@ -22028,7 +22019,7 @@
         <v>1132</v>
       </c>
       <c r="T164" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V164" t="s">
         <v>1133</v>
@@ -22049,10 +22040,10 @@
         <v>1129</v>
       </c>
       <c r="AB164" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC164" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD164">
         <v>3</v>
@@ -22147,16 +22138,16 @@
         <v>1134</v>
       </c>
       <c r="Z165" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="AA165" t="s">
         <v>1129</v>
       </c>
       <c r="AB165" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC165" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AD165">
         <v>0</v>
@@ -22212,7 +22203,7 @@
         <v>2020</v>
       </c>
       <c r="H166" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
@@ -22251,13 +22242,13 @@
         <v>1140</v>
       </c>
       <c r="Z166" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="AA166" t="s">
         <v>1129</v>
       </c>
       <c r="AB166" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC166" s="10" t="s">
         <v>1170</v>
@@ -22316,7 +22307,7 @@
         <v>2016</v>
       </c>
       <c r="H167" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I167" t="b">
         <v>1</v>
@@ -22325,10 +22316,10 @@
         <v>1</v>
       </c>
       <c r="K167" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="M167" t="b">
         <v>0</v>
@@ -22346,7 +22337,7 @@
         <v>1132</v>
       </c>
       <c r="T167" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V167" t="s">
         <v>1133</v>
@@ -22367,7 +22358,7 @@
         <v>34</v>
       </c>
       <c r="AC167" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD167">
         <v>3</v>
@@ -22429,10 +22420,10 @@
         <v>1</v>
       </c>
       <c r="K168" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="M168" t="b">
         <v>1</v>
@@ -22441,7 +22432,7 @@
         <v>1</v>
       </c>
       <c r="O168" s="7" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="P168" t="b">
         <v>0</v>
@@ -22474,10 +22465,10 @@
         <v>1135</v>
       </c>
       <c r="AB168" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC168" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="AD168">
         <v>1</v>
@@ -22563,7 +22554,7 @@
         <v>1126</v>
       </c>
       <c r="W169" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X169" t="s">
         <v>1158</v>
@@ -22575,7 +22566,7 @@
         <v>1129</v>
       </c>
       <c r="AB169" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC169" s="10" t="s">
         <v>1170</v>
@@ -22673,16 +22664,16 @@
         <v>1134</v>
       </c>
       <c r="Z170" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="AA170" t="s">
         <v>1129</v>
       </c>
       <c r="AB170" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC170" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD170">
         <v>0</v>
@@ -22768,7 +22759,7 @@
         <v>1126</v>
       </c>
       <c r="W171" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X171" t="s">
         <v>1125</v>
@@ -22780,10 +22771,10 @@
         <v>1135</v>
       </c>
       <c r="AB171" t="s">
+        <v>1239</v>
+      </c>
+      <c r="AC171" s="10" t="s">
         <v>1240</v>
-      </c>
-      <c r="AC171" s="10" t="s">
-        <v>1241</v>
       </c>
       <c r="AD171">
         <v>2</v>
@@ -22848,10 +22839,10 @@
         <v>1</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="M172" t="b">
         <v>0</v>
@@ -22860,7 +22851,7 @@
         <v>1</v>
       </c>
       <c r="O172" s="22" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="P172" t="b">
         <v>0</v>
@@ -22887,16 +22878,16 @@
         <v>1134</v>
       </c>
       <c r="Z172" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA172" t="s">
         <v>1135</v>
       </c>
       <c r="AB172" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC172" s="10" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AD172">
         <v>1</v>
@@ -22991,16 +22982,16 @@
         <v>1134</v>
       </c>
       <c r="Z173" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA173" t="s">
         <v>1129</v>
       </c>
       <c r="AB173" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC173" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AD173">
         <v>0</v>
@@ -23032,7 +23023,7 @@
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B174" t="s">
         <v>1096</v>
@@ -23083,7 +23074,7 @@
         <v>1126</v>
       </c>
       <c r="W174" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X174" t="s">
         <v>1125</v>
@@ -23092,16 +23083,16 @@
         <v>1134</v>
       </c>
       <c r="Z174" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="AA174" t="s">
         <v>1129</v>
       </c>
       <c r="AB174" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC174" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD174">
         <v>0</v>
@@ -23137,12 +23128,12 @@
         <v>1</v>
       </c>
       <c r="AO174" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B175" t="s">
         <v>1097</v>
@@ -23194,7 +23185,7 @@
         <v>897</v>
       </c>
       <c r="AO175" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.2">
@@ -23241,7 +23232,7 @@
         <v>1132</v>
       </c>
       <c r="T176" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V176" t="s">
         <v>1133</v>
@@ -23256,16 +23247,16 @@
         <v>1140</v>
       </c>
       <c r="Z176" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AA176" t="s">
         <v>1129</v>
       </c>
       <c r="AB176" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC176" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD176">
         <v>0</v>
@@ -23351,22 +23342,22 @@
         <v>1126</v>
       </c>
       <c r="W177" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X177" t="s">
         <v>1125</v>
       </c>
       <c r="Y177" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA177" t="s">
         <v>1129</v>
       </c>
       <c r="AB177" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC177" s="10" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="AD177">
         <v>1</v>
@@ -23416,7 +23407,7 @@
         <v>2019</v>
       </c>
       <c r="H178" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
@@ -23425,7 +23416,7 @@
         <v>1</v>
       </c>
       <c r="L178" s="16" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="M178" t="b">
         <v>0</v>
@@ -23443,7 +23434,7 @@
         <v>1132</v>
       </c>
       <c r="T178" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V178" t="s">
         <v>1133</v>
@@ -23458,7 +23449,7 @@
         <v>1134</v>
       </c>
       <c r="Z178" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA178" t="s">
         <v>1135</v>
@@ -23467,7 +23458,7 @@
         <v>9</v>
       </c>
       <c r="AC178" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AD178">
         <v>1</v>
@@ -23503,7 +23494,7 @@
         <v>1</v>
       </c>
       <c r="AO178" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="179" spans="1:41" ht="17" x14ac:dyDescent="0.2">
@@ -23535,10 +23526,10 @@
         <v>1</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="M179" t="b">
         <v>0</v>
@@ -23556,7 +23547,7 @@
         <v>1132</v>
       </c>
       <c r="T179" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V179" t="s">
         <v>1133</v>
@@ -23571,7 +23562,7 @@
         <v>1134</v>
       </c>
       <c r="Z179" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="AA179" t="s">
         <v>1135</v>
@@ -23580,7 +23571,7 @@
         <v>540</v>
       </c>
       <c r="AC179" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AD179">
         <v>1</v>
@@ -23607,7 +23598,7 @@
         <v>0</v>
       </c>
       <c r="AL179" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AM179" t="b">
         <v>1</v>
@@ -23660,7 +23651,7 @@
         <v>1132</v>
       </c>
       <c r="T180" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V180" t="s">
         <v>1133</v>
@@ -23675,13 +23666,13 @@
         <v>1134</v>
       </c>
       <c r="Z180" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="AA180" t="s">
         <v>1129</v>
       </c>
       <c r="AB180" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC180" s="10" t="s">
         <v>1169</v>
@@ -23782,10 +23773,10 @@
         <v>1129</v>
       </c>
       <c r="AB181" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC181" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD181">
         <v>0</v>
@@ -23823,7 +23814,7 @@
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B182" t="s">
         <v>1104</v>
@@ -23874,7 +23865,7 @@
         <v>1126</v>
       </c>
       <c r="W182" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X182" t="s">
         <v>1125</v>
@@ -23889,10 +23880,10 @@
         <v>1129</v>
       </c>
       <c r="AB182" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC182" s="10" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AD182">
         <v>0</v>
@@ -23928,7 +23919,7 @@
         <v>1</v>
       </c>
       <c r="AO182" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.2">
@@ -23975,7 +23966,7 @@
         <v>1132</v>
       </c>
       <c r="T183" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V183" t="s">
         <v>1133</v>
@@ -23990,7 +23981,7 @@
         <v>1134</v>
       </c>
       <c r="Z183" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA183" t="s">
         <v>1135</v>
@@ -23999,7 +23990,7 @@
         <v>43</v>
       </c>
       <c r="AC183" s="10" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AD183">
         <v>3</v>
@@ -24082,7 +24073,7 @@
         <v>1152</v>
       </c>
       <c r="U184" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="V184" t="s">
         <v>1133</v>
@@ -24097,7 +24088,7 @@
         <v>1134</v>
       </c>
       <c r="Z184" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AA184" t="s">
         <v>1135</v>
@@ -24106,7 +24097,7 @@
         <v>11</v>
       </c>
       <c r="AC184" s="10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AD184">
         <v>4</v>
@@ -24204,7 +24195,7 @@
         <v>1129</v>
       </c>
       <c r="AB185" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC185" s="10" t="s">
         <v>1170</v>
@@ -24287,7 +24278,7 @@
         <v>1132</v>
       </c>
       <c r="T186" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V186" t="s">
         <v>1133</v>
@@ -24302,13 +24293,13 @@
         <v>1134</v>
       </c>
       <c r="Z186" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="AA186" t="s">
         <v>1135</v>
       </c>
       <c r="AB186" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC186" s="10" t="s">
         <v>1174</v>
@@ -24367,7 +24358,7 @@
         <v>2018</v>
       </c>
       <c r="H187" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I187" t="b">
         <v>0</v>
@@ -24391,7 +24382,7 @@
         <v>1132</v>
       </c>
       <c r="T187" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V187" t="s">
         <v>1133</v>
@@ -24406,7 +24397,7 @@
         <v>1134</v>
       </c>
       <c r="Z187" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AA187" t="s">
         <v>1135</v>
@@ -24415,7 +24406,7 @@
         <v>19</v>
       </c>
       <c r="AC187" s="10" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AD187">
         <v>0</v>
@@ -24510,13 +24501,13 @@
         <v>1134</v>
       </c>
       <c r="Z188" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="AA188" t="s">
         <v>1129</v>
       </c>
       <c r="AB188" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC188" s="10" t="s">
         <v>1170</v>
@@ -24614,16 +24605,16 @@
         <v>1134</v>
       </c>
       <c r="Z189" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AA189" t="s">
         <v>1129</v>
       </c>
       <c r="AB189" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC189" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AD189">
         <v>2</v>
@@ -24688,7 +24679,7 @@
         <v>1</v>
       </c>
       <c r="K190" s="14" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="M190" t="b">
         <v>0</v>
@@ -24724,10 +24715,10 @@
         <v>1129</v>
       </c>
       <c r="AB190" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC190" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AD190">
         <v>1</v>
@@ -24783,7 +24774,7 @@
         <v>2017</v>
       </c>
       <c r="H191" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
@@ -24807,7 +24798,7 @@
         <v>1132</v>
       </c>
       <c r="T191" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V191" t="s">
         <v>1133</v>
@@ -24825,7 +24816,7 @@
         <v>1135</v>
       </c>
       <c r="AB191" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC191" s="10" t="s">
         <v>1174</v>
@@ -24911,7 +24902,7 @@
         <v>1125</v>
       </c>
       <c r="U192" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="V192" t="s">
         <v>1126</v>
@@ -24926,13 +24917,13 @@
         <v>1134</v>
       </c>
       <c r="Z192" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="AA192" t="s">
         <v>1129</v>
       </c>
       <c r="AB192" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC192" s="10" t="s">
         <v>1170</v>
@@ -25000,10 +24991,10 @@
         <v>1</v>
       </c>
       <c r="K193" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="M193" t="b">
         <v>0</v>
@@ -25021,7 +25012,7 @@
         <v>1132</v>
       </c>
       <c r="T193" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V193" t="s">
         <v>1133</v>
@@ -25036,7 +25027,7 @@
         <v>1134</v>
       </c>
       <c r="Z193" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="AA193" t="s">
         <v>1129</v>
@@ -25143,10 +25134,10 @@
         <v>1129</v>
       </c>
       <c r="AB194" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC194" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="AD194">
         <v>2</v>
@@ -25184,7 +25175,7 @@
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B195" t="s">
         <v>1117</v>
@@ -25232,28 +25223,28 @@
         <v>1125</v>
       </c>
       <c r="U195" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="V195" t="s">
         <v>1126</v>
       </c>
       <c r="W195" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X195" t="s">
         <v>1125</v>
       </c>
       <c r="Y195" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA195" t="s">
         <v>1129</v>
       </c>
       <c r="AB195" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC195" s="10" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AD195">
         <v>0</v>
@@ -25283,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="AO195" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
@@ -25336,19 +25327,19 @@
         <v>1126</v>
       </c>
       <c r="W196" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="X196" t="s">
         <v>1125</v>
       </c>
       <c r="Y196" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AA196" t="s">
         <v>1129</v>
       </c>
       <c r="AB196" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC196" s="9">
         <v>12</v>
@@ -25428,7 +25419,7 @@
         <v>1132</v>
       </c>
       <c r="T197" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V197" t="s">
         <v>1133</v>
@@ -25443,7 +25434,7 @@
         <v>1134</v>
       </c>
       <c r="Z197" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="AA197" t="s">
         <v>1129</v>
@@ -25547,7 +25538,7 @@
         <v>1140</v>
       </c>
       <c r="Z198" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="AA198" t="s">
         <v>1129</v>
@@ -25621,10 +25612,10 @@
         <v>1</v>
       </c>
       <c r="K199" s="7" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="M199" t="b">
         <v>0</v>
@@ -25642,7 +25633,7 @@
         <v>1132</v>
       </c>
       <c r="T199" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V199" t="s">
         <v>1133</v>
@@ -25657,7 +25648,7 @@
         <v>1134</v>
       </c>
       <c r="Z199" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="AA199" t="s">
         <v>1135</v>
@@ -25761,13 +25752,13 @@
         <v>1140</v>
       </c>
       <c r="Z200" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AA200" t="s">
         <v>1129</v>
       </c>
       <c r="AB200" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC200" s="9">
         <v>14</v>
@@ -25850,7 +25841,7 @@
         <v>1132</v>
       </c>
       <c r="T201" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="V201" t="s">
         <v>1133</v>
@@ -25865,7 +25856,7 @@
         <v>1134</v>
       </c>
       <c r="Z201" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="AA201" t="s">
         <v>1135</v>
